--- a/Projektplan Online Clicker.xlsx
+++ b/Projektplan Online Clicker.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mautouma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Teamplan" sheetId="1" r:id="rId1"/>
@@ -1199,6 +1199,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="11" xfId="2" applyBorder="1"/>
     <xf numFmtId="14" fontId="9" fillId="13" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1214,7 +1215,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
@@ -1548,14 +1548,14 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>7</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
         <v>8</v>
       </c>
@@ -1652,56 +1652,56 @@
   </sheetPr>
   <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="G28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X58" sqref="X58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="52.625" customWidth="1"/>
-    <col min="3" max="3" width="29.375" customWidth="1"/>
-    <col min="4" max="4" width="83.375" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="83.33203125" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="5.25" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="6.625" customWidth="1"/>
-    <col min="10" max="10" width="4.875" customWidth="1"/>
-    <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="12" max="12" width="19.75" customWidth="1"/>
-    <col min="13" max="13" width="15.375" customWidth="1"/>
-    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="4.88671875" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+    <col min="12" max="12" width="19.77734375" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
     <col min="31" max="31" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="G1" s="63" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G1" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="62" t="s">
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="45"/>
-      <c r="O1" s="61" t="s">
+      <c r="O1" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-    </row>
-    <row r="2" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+    </row>
+    <row r="2" spans="1:28" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="17" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>47</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D4" s="16" t="s">
         <v>90</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>8</v>
       </c>
       <c r="L4" s="48">
-        <f t="shared" ref="L4:L42" si="1">SUM(G4:J4)</f>
+        <f t="shared" ref="L4:L45" si="1">SUM(G4:J4)</f>
         <v>4.5</v>
       </c>
       <c r="M4" s="16">
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D5" s="44" t="s">
         <v>156</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D6" s="44" t="s">
         <v>158</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="L7" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C8" s="16" t="s">
         <v>49</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D9" s="16" t="s">
         <v>84</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C10" s="16" t="s">
         <v>50</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
         <v>165</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" s="17" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
         <v>18</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D13" s="16" t="s">
         <v>159</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="L16" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="L17" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="16" t="s">
         <v>142</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D19" s="16" t="s">
         <v>143</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="2:23" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D20" s="20" t="s">
         <v>160</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:23" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:23" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="18" t="s">
         <v>166</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:23" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" s="17" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
         <v>19</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D23" s="16" t="s">
         <v>145</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D24" s="16" t="s">
         <v>146</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D25" s="16" t="s">
         <v>161</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D26" s="16" t="s">
         <v>147</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D27" s="16" t="s">
         <v>153</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="16" t="s">
         <v>21</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:23" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:23" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18" t="s">
         <v>167</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:23" s="17" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" s="17" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B30" s="17" t="s">
         <v>22</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D31" s="52" t="s">
         <v>25</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D32" s="54" t="s">
         <v>174</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="54" t="s">
         <v>26</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:29" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:29" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="18" t="s">
         <v>168</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:29" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:29" s="17" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B35" s="17" t="s">
         <v>27</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D36" s="16" t="s">
         <v>150</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D37" s="16" t="s">
         <v>149</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="16" t="s">
         <v>29</v>
       </c>
@@ -2918,23 +2918,29 @@
       <c r="F38" s="55">
         <v>43073</v>
       </c>
+      <c r="J38" s="44">
+        <v>3</v>
+      </c>
       <c r="K38" s="44">
         <v>25</v>
       </c>
       <c r="L38" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M38" s="16">
         <f>K38-L38</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N38" s="48">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="W38" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D39" s="54" t="s">
         <v>185</v>
       </c>
@@ -2957,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:29" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:29" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="18" t="s">
         <v>167</v>
       </c>
@@ -2974,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:29" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:29" s="17" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B41" s="17" t="s">
         <v>31</v>
       </c>
@@ -2987,7 +2993,7 @@
       <c r="M41" s="16"/>
       <c r="N41" s="47"/>
     </row>
-    <row r="42" spans="2:29" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:29" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D42" s="51" t="s">
         <v>183</v>
       </c>
@@ -3035,20 +3041,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>169</v>
       </c>
       <c r="K43" s="16">
         <v>15</v>
       </c>
-      <c r="L43" s="48"/>
+      <c r="L43" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N43" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>92</v>
       </c>
@@ -3061,36 +3070,57 @@
       <c r="F44" s="29">
         <v>43084</v>
       </c>
-      <c r="L44" s="48"/>
+      <c r="L44" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N44" s="48"/>
     </row>
-    <row r="45" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D45" s="56" t="s">
         <v>93</v>
       </c>
       <c r="F45" s="57">
         <v>42745</v>
       </c>
+      <c r="G45" s="16">
+        <v>3</v>
+      </c>
+      <c r="H45" s="16">
+        <v>3</v>
+      </c>
+      <c r="I45" s="44">
+        <v>3</v>
+      </c>
+      <c r="J45" s="44">
+        <v>0</v>
+      </c>
       <c r="K45" s="16">
         <v>180</v>
       </c>
-      <c r="L45" s="48"/>
+      <c r="L45" s="48">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="M45" s="16">
         <f>K45-L45</f>
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="N45" s="48">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="W45" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D46"/>
       <c r="F46" s="29"/>
       <c r="L46" s="48"/>
       <c r="N46" s="48"/>
     </row>
-    <row r="47" spans="2:29" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:29" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="18" t="s">
         <v>170</v>
       </c>
@@ -3100,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D48" s="14" t="s">
         <v>51</v>
       </c>
@@ -3116,7 +3146,7 @@
       </c>
       <c r="L48" s="14">
         <f>SUM(L3:L47)</f>
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="M48" s="14"/>
       <c r="N48" s="14"/>
@@ -3154,7 +3184,7 @@
       </c>
       <c r="W48" s="14">
         <f>SUM(W3:W47)</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="X48" s="14">
         <f>SUM(X3:X47)</f>
@@ -3181,17 +3211,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="11:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:31" x14ac:dyDescent="0.3">
       <c r="K49" t="str">
         <f>600-K48 &amp; " (Zeitpuffer)"</f>
         <v>15 (Zeitpuffer)</v>
       </c>
       <c r="L49" t="str">
         <f>600-L48 &amp; " (Rest IST Std)"</f>
-        <v>413 (Rest IST Std)</v>
-      </c>
-    </row>
-    <row r="55" spans="11:31" ht="75" x14ac:dyDescent="0.25">
+        <v>401 (Rest IST Std)</v>
+      </c>
+    </row>
+    <row r="55" spans="11:31" ht="72" x14ac:dyDescent="0.3">
       <c r="AD55" s="15" t="s">
         <v>98</v>
       </c>
@@ -3199,7 +3229,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="11:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="11:31" x14ac:dyDescent="0.3">
       <c r="L56" s="9" t="s">
         <v>46</v>
       </c>
@@ -3232,7 +3262,7 @@
         <v>3</v>
       </c>
       <c r="W56" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X56" s="10"/>
       <c r="Y56" s="10"/>
@@ -3242,14 +3272,14 @@
       <c r="AC56" s="10"/>
       <c r="AD56">
         <f>SUM(O56:AC56)</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AE56">
         <f>150-AD56</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="11:31" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="11:31" x14ac:dyDescent="0.3">
       <c r="L57" s="11"/>
       <c r="M57" s="11" t="s">
         <v>6</v>
@@ -3280,7 +3310,7 @@
         <v>5</v>
       </c>
       <c r="W57" s="11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X57" s="11"/>
       <c r="Y57" s="11"/>
@@ -3290,14 +3320,14 @@
       <c r="AC57" s="11"/>
       <c r="AD57">
         <f>SUM(O57:AC57)</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AE57">
         <f t="shared" ref="AE57:AE59" si="6">150-AD57</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="11:31" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="11:31" x14ac:dyDescent="0.3">
       <c r="L58" s="11"/>
       <c r="M58" s="11" t="s">
         <v>7</v>
@@ -3328,7 +3358,7 @@
         <v>3</v>
       </c>
       <c r="W58" s="11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
@@ -3338,14 +3368,14 @@
       <c r="AC58" s="11"/>
       <c r="AD58">
         <f>SUM(O58:AC58)</f>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AE58">
         <f t="shared" si="6"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="11:31" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="11:31" x14ac:dyDescent="0.3">
       <c r="L59" s="12"/>
       <c r="M59" s="12" t="s">
         <v>8</v>
@@ -3376,7 +3406,7 @@
         <v>3</v>
       </c>
       <c r="W59" s="12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
@@ -3386,18 +3416,18 @@
       <c r="AC59" s="12"/>
       <c r="AD59">
         <f>SUM(O59:AC59)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE59">
         <f t="shared" si="6"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="L60" s="64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="L60" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="M60" s="64"/>
+      <c r="M60" s="65"/>
       <c r="N60" s="46"/>
       <c r="O60" s="14">
         <f>SUM(O56:O59)</f>
@@ -3433,7 +3463,7 @@
       </c>
       <c r="W60" s="14">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="X60" s="14">
         <f t="shared" si="7"/>
@@ -3461,7 +3491,7 @@
       </c>
       <c r="AD60" s="14">
         <f>SUM(O60:AC60)</f>
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3501,21 +3531,21 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.375" customWidth="1"/>
-    <col min="3" max="3" width="83.375" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="7.875" customWidth="1"/>
-    <col min="12" max="12" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="83.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
@@ -3528,20 +3558,20 @@
       <c r="D1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="65"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="65"/>
+      <c r="J1" s="66"/>
       <c r="K1" s="6" t="s">
         <v>40</v>
       </c>
@@ -3549,7 +3579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3584,7 +3614,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3619,7 +3649,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3647,14 +3677,14 @@
       <c r="J4" s="1">
         <v>42681</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="61" t="s">
         <v>75</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3689,7 +3719,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3714,14 +3744,14 @@
       <c r="H6" s="1">
         <v>42653</v>
       </c>
-      <c r="K6" s="66" t="s">
+      <c r="K6" s="61" t="s">
         <v>75</v>
       </c>
       <c r="L6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3756,7 +3786,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3791,7 +3821,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3826,7 +3856,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3861,7 +3891,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3896,7 +3926,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3931,7 +3961,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3966,7 +3996,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3998,7 +4028,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4023,14 +4053,14 @@
       <c r="H15" s="1">
         <v>42674</v>
       </c>
-      <c r="K15" s="66" t="s">
+      <c r="K15" s="61" t="s">
         <v>75</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4055,14 +4085,14 @@
       <c r="H16" s="1">
         <v>42674</v>
       </c>
-      <c r="K16" s="66" t="s">
+      <c r="K16" s="61" t="s">
         <v>75</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4097,7 +4127,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4132,7 +4162,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4167,7 +4197,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4202,7 +4232,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4258,17 +4288,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="41.75" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" customWidth="1"/>
+    <col min="2" max="2" width="41.77734375" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="119" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
@@ -4288,7 +4318,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>601</v>
       </c>
@@ -4308,7 +4338,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>602</v>
       </c>
@@ -4328,7 +4358,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>607</v>
       </c>
@@ -4348,7 +4378,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>603</v>
       </c>
@@ -4368,7 +4398,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>604</v>
       </c>
@@ -4388,7 +4418,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>606</v>
       </c>
@@ -4408,7 +4438,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>605</v>
       </c>

--- a/Projektplan Online Clicker.xlsx
+++ b/Projektplan Online Clicker.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="199">
   <si>
     <t>Name</t>
   </si>
@@ -656,6 +656,9 @@
   <si>
     <t>Abhängig von der 
 implementierten Softwarearchitektur.</t>
+  </si>
+  <si>
+    <t>Softwarearchitektur</t>
   </si>
 </sst>
 </file>
@@ -1650,10 +1653,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AE60"/>
+  <dimension ref="A1:AE61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X58" sqref="X58"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1852,7 +1855,7 @@
         <v>8</v>
       </c>
       <c r="L4" s="48">
-        <f t="shared" ref="L4:L45" si="1">SUM(G4:J4)</f>
+        <f t="shared" ref="L4:L46" si="1">SUM(G4:J4)</f>
         <v>4.5</v>
       </c>
       <c r="M4" s="16">
@@ -1860,7 +1863,7 @@
         <v>3.5</v>
       </c>
       <c r="N4" s="48">
-        <f t="shared" ref="N4:N47" si="2">SUM(O4:AB4)</f>
+        <f t="shared" ref="N4:N48" si="2">SUM(O4:AB4)</f>
         <v>4.5</v>
       </c>
       <c r="O4" s="16">
@@ -2696,85 +2699,105 @@
       <c r="D30" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="60">
-        <v>42706</v>
+      <c r="F30" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" s="17">
+        <v>1</v>
       </c>
       <c r="K30" s="17">
         <v>8</v>
       </c>
       <c r="L30" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="17">
         <f>K30-L30</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N30" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D31" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="53">
-        <v>42706</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="V30" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" s="44">
+        <v>2</v>
+      </c>
       <c r="K31" s="44">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L31" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" s="16">
         <f>K31-L31</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N31" s="48">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="F32" s="55">
+        <v>2</v>
+      </c>
+      <c r="V31" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D32" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="53">
         <v>42706</v>
       </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20">
+        <v>3</v>
+      </c>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
       <c r="K32" s="44">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L32" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" s="16">
         <f>K32-L32</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N32" s="48">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="V32" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="54" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="F33" s="55">
-        <v>42745</v>
+        <v>42706</v>
+      </c>
+      <c r="H33" s="44">
+        <v>0</v>
       </c>
       <c r="K33" s="44">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L33" s="48">
         <f t="shared" si="1"/>
@@ -2782,147 +2805,138 @@
       </c>
       <c r="M33" s="16">
         <f>K33-L33</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N33" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:29" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="K34" s="18">
-        <f>SUM(K30:K33)</f>
-        <v>53</v>
-      </c>
-      <c r="L34" s="49">
+    <row r="34" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="55">
+        <v>42745</v>
+      </c>
+      <c r="K34" s="44">
+        <v>15</v>
+      </c>
+      <c r="L34" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="M34" s="16">
+        <f>K34-L34</f>
+        <v>15</v>
       </c>
       <c r="N34" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:29" s="17" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
+    <row r="35" spans="2:23" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K35" s="18">
+        <f>SUM(K30:K34)</f>
+        <v>56</v>
+      </c>
+      <c r="L35" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" s="17" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C36" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D36" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F36" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G36" s="17">
         <v>2.5</v>
       </c>
-      <c r="H35" s="17">
-        <v>0</v>
-      </c>
-      <c r="I35" s="17">
-        <v>0</v>
-      </c>
-      <c r="J35" s="17">
+      <c r="H36" s="17">
+        <v>0</v>
+      </c>
+      <c r="I36" s="17">
+        <v>0</v>
+      </c>
+      <c r="J36" s="17">
         <v>2.5</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K36" s="17">
         <v>6</v>
       </c>
-      <c r="L35" s="47">
+      <c r="L36" s="47">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M35" s="17">
-        <f>K35-L35</f>
-        <v>1</v>
-      </c>
-      <c r="N35" s="47">
+      <c r="M36" s="17">
+        <f>K36-L36</f>
+        <v>1</v>
+      </c>
+      <c r="N36" s="47">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Q35" s="17">
+      <c r="Q36" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="16" t="s">
+    <row r="37" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F37" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J37" s="16">
         <v>2</v>
       </c>
-      <c r="K36" s="44">
+      <c r="K37" s="44">
         <v>20</v>
       </c>
-      <c r="L36" s="48">
+      <c r="L37" s="48">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M36" s="16">
-        <f>K36-L36</f>
+      <c r="M37" s="16">
+        <f>K37-L37</f>
         <v>18</v>
       </c>
-      <c r="N36" s="48">
+      <c r="N37" s="48">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="R36" s="16">
+      <c r="R37" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="16" t="s">
+    <row r="38" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F38" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="J37" s="16">
-        <v>3</v>
-      </c>
-      <c r="K37" s="44">
+      <c r="J38" s="16">
+        <v>3</v>
+      </c>
+      <c r="K38" s="44">
         <v>10</v>
-      </c>
-      <c r="L37" s="48">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M37" s="16">
-        <f>K37-L37</f>
-        <v>7</v>
-      </c>
-      <c r="N37" s="48">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Q37" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="55">
-        <v>43073</v>
-      </c>
-      <c r="J38" s="44">
-        <v>3</v>
-      </c>
-      <c r="K38" s="44">
-        <v>25</v>
       </c>
       <c r="L38" s="48">
         <f t="shared" si="1"/>
@@ -2930,407 +2944,391 @@
       </c>
       <c r="M38" s="16">
         <f>K38-L38</f>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="N38" s="48">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="W38" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q38" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="D39" s="54" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="F39" s="55">
-        <v>42724</v>
+        <v>43073</v>
+      </c>
+      <c r="J39" s="44">
+        <v>3</v>
       </c>
       <c r="K39" s="44">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L39" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M39" s="16">
         <f>K39-L39</f>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N39" s="48">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:29" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="K40" s="18">
-        <f>SUM(K35:K39)</f>
-        <v>70</v>
-      </c>
-      <c r="L40" s="49">
+        <v>3</v>
+      </c>
+      <c r="W39" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="55">
+        <v>42724</v>
+      </c>
+      <c r="K40" s="44">
+        <v>9</v>
+      </c>
+      <c r="L40" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="M40" s="16">
+        <f>K40-L40</f>
+        <v>9</v>
       </c>
       <c r="N40" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:29" s="17" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="17" t="s">
+    <row r="41" spans="2:23" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K41" s="18">
+        <f>SUM(K36:K40)</f>
+        <v>70</v>
+      </c>
+      <c r="L41" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" s="17" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C42" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D41"/>
-      <c r="F41" s="50"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="47"/>
-    </row>
-    <row r="42" spans="2:29" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D42" s="51" t="s">
+      <c r="D42"/>
+      <c r="F42" s="50"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="47"/>
+    </row>
+    <row r="43" spans="2:23" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D43" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="E42" s="44"/>
-      <c r="F42" s="58" t="s">
+      <c r="E43" s="44"/>
+      <c r="F43" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G43" s="16">
         <v>9</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H43" s="16">
         <v>14</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I43" s="16">
         <v>5</v>
       </c>
-      <c r="J42" s="44">
+      <c r="J43" s="44">
         <v>9</v>
       </c>
-      <c r="K42" s="44">
+      <c r="K43" s="44">
         <v>15</v>
       </c>
-      <c r="L42" s="48">
+      <c r="L43" s="48">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="M42" s="16">
-        <f>K42-L42</f>
+      <c r="M43" s="16">
+        <f>K43-L43</f>
         <v>-22</v>
       </c>
-      <c r="N42" s="48">
+      <c r="N43" s="48">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="T42" s="16">
+      <c r="T43" s="16">
         <v>6</v>
       </c>
-      <c r="U42" s="16">
+      <c r="U43" s="16">
         <v>9</v>
       </c>
-      <c r="V42" s="16">
+      <c r="V43" s="16">
         <v>13</v>
       </c>
-      <c r="W42" s="44">
+      <c r="W43" s="44">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="16" t="s">
+    <row r="44" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K44" s="16">
         <v>15</v>
-      </c>
-      <c r="L43" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="F44" s="29">
-        <v>43084</v>
       </c>
       <c r="L44" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N44" s="48"/>
-    </row>
-    <row r="45" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="56" t="s">
+      <c r="N44" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="57">
-        <v>42745</v>
-      </c>
-      <c r="G45" s="16">
-        <v>3</v>
-      </c>
-      <c r="H45" s="16">
-        <v>3</v>
-      </c>
-      <c r="I45" s="44">
-        <v>3</v>
-      </c>
-      <c r="J45" s="44">
-        <v>0</v>
-      </c>
-      <c r="K45" s="16">
-        <v>180</v>
+      <c r="D45" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="29">
+        <v>43084</v>
       </c>
       <c r="L45" s="48">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="48"/>
+    </row>
+    <row r="46" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="57">
+        <v>42745</v>
+      </c>
+      <c r="G46" s="16">
+        <v>3</v>
+      </c>
+      <c r="H46" s="16">
+        <v>3</v>
+      </c>
+      <c r="I46" s="44">
+        <v>3</v>
+      </c>
+      <c r="J46" s="44">
+        <v>0</v>
+      </c>
+      <c r="K46" s="16">
+        <v>180</v>
+      </c>
+      <c r="L46" s="48">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="M45" s="16">
-        <f>K45-L45</f>
+      <c r="M46" s="16">
+        <f>K46-L46</f>
         <v>171</v>
       </c>
-      <c r="N45" s="48">
+      <c r="N46" s="48">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="W45" s="16">
+      <c r="W46" s="16">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D46"/>
-      <c r="F46" s="29"/>
-      <c r="L46" s="48"/>
-      <c r="N46" s="48"/>
-    </row>
-    <row r="47" spans="2:29" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="18" t="s">
+    <row r="47" spans="2:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D47"/>
+      <c r="F47" s="29"/>
+      <c r="L47" s="48"/>
+      <c r="N47" s="48"/>
+    </row>
+    <row r="48" spans="2:23" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="L47" s="49"/>
-      <c r="N47" s="48">
+      <c r="L48" s="49"/>
+      <c r="N48" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="14" t="s">
+    <row r="49" spans="4:31" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14">
-        <f>SUM(K45:K47,K40,K34,K29,K21,K11,K43)</f>
-        <v>585</v>
-      </c>
-      <c r="L48" s="14">
-        <f>SUM(L3:L47)</f>
-        <v>199</v>
-      </c>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14">
-        <f>SUM(O3:O41)</f>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14">
+        <f>SUM(K46:K48,K41,K35,K29,K21,K11,K44)</f>
+        <v>588</v>
+      </c>
+      <c r="L49" s="14">
+        <f>SUM(L3:L48)</f>
+        <v>205</v>
+      </c>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14">
+        <f>SUM(O3:O42)</f>
         <v>10.5</v>
       </c>
-      <c r="P48" s="14">
-        <f>SUM(P3:P41)</f>
+      <c r="P49" s="14">
+        <f>SUM(P3:P42)</f>
         <v>18</v>
       </c>
-      <c r="Q48" s="14">
-        <f>SUM(Q3:Q41)</f>
+      <c r="Q49" s="14">
+        <f>SUM(Q3:Q42)</f>
         <v>26</v>
       </c>
-      <c r="R48" s="14">
-        <f>SUM(R3:R41)</f>
+      <c r="R49" s="14">
+        <f>SUM(R3:R42)</f>
         <v>43.5</v>
       </c>
-      <c r="S48" s="14">
-        <f>SUM(S3:S41)</f>
+      <c r="S49" s="14">
+        <f>SUM(S3:S42)</f>
         <v>39</v>
       </c>
-      <c r="T48" s="14">
-        <f>SUM(T3:T47)</f>
+      <c r="T49" s="14">
+        <f>SUM(T3:T48)</f>
         <v>6</v>
       </c>
-      <c r="U48" s="14">
-        <f>SUM(U3:U47)</f>
+      <c r="U49" s="14">
+        <f>SUM(U3:U48)</f>
         <v>12</v>
       </c>
-      <c r="V48" s="14">
-        <f>SUM(V3:V47)</f>
-        <v>14</v>
-      </c>
-      <c r="W48" s="14">
-        <f>SUM(W3:W47)</f>
+      <c r="V49" s="14">
+        <f>SUM(V3:V48)</f>
+        <v>20</v>
+      </c>
+      <c r="W49" s="14">
+        <f>SUM(W3:W48)</f>
         <v>30</v>
       </c>
-      <c r="X48" s="14">
-        <f>SUM(X3:X47)</f>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="14">
-        <f t="shared" ref="Y48:AA48" si="4">SUM(Y3:Y47)</f>
-        <v>0</v>
-      </c>
-      <c r="Z48" s="14">
+      <c r="X49" s="14">
+        <f>SUM(X3:X48)</f>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="14">
+        <f t="shared" ref="Y49:AA49" si="4">SUM(Y3:Y48)</f>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA48" s="14">
+      <c r="AA49" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB48" s="14">
-        <f t="shared" ref="AB48:AC48" si="5">SUM(AB3:AB41)</f>
-        <v>0</v>
-      </c>
-      <c r="AC48" s="14">
+      <c r="AB49" s="14">
+        <f t="shared" ref="AB49:AC49" si="5">SUM(AB3:AB42)</f>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="11:31" x14ac:dyDescent="0.3">
-      <c r="K49" t="str">
-        <f>600-K48 &amp; " (Zeitpuffer)"</f>
-        <v>15 (Zeitpuffer)</v>
-      </c>
-      <c r="L49" t="str">
-        <f>600-L48 &amp; " (Rest IST Std)"</f>
-        <v>401 (Rest IST Std)</v>
-      </c>
-    </row>
-    <row r="55" spans="11:31" ht="72" x14ac:dyDescent="0.3">
-      <c r="AD55" s="15" t="s">
+    <row r="50" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="K50" t="str">
+        <f>600-K49 &amp; " (Zeitpuffer)"</f>
+        <v>12 (Zeitpuffer)</v>
+      </c>
+      <c r="L50" t="str">
+        <f>600-L49 &amp; " (Rest IST Std)"</f>
+        <v>395 (Rest IST Std)</v>
+      </c>
+    </row>
+    <row r="56" spans="4:31" ht="72" x14ac:dyDescent="0.3">
+      <c r="AD56" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="AE55" s="15" t="s">
+      <c r="AE56" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="11:31" x14ac:dyDescent="0.3">
-      <c r="L56" s="9" t="s">
+    <row r="57" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="L57" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M56" s="10" t="s">
+      <c r="M57" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10">
-        <v>3</v>
-      </c>
-      <c r="P56" s="10">
+      <c r="N57" s="10"/>
+      <c r="O57" s="10">
+        <v>3</v>
+      </c>
+      <c r="P57" s="10">
         <v>5.5</v>
       </c>
-      <c r="Q56" s="10">
+      <c r="Q57" s="10">
         <v>5</v>
       </c>
-      <c r="R56" s="10">
+      <c r="R57" s="10">
         <v>10</v>
       </c>
-      <c r="S56" s="10">
+      <c r="S57" s="10">
         <v>12.5</v>
       </c>
-      <c r="T56" s="10">
-        <v>3</v>
-      </c>
-      <c r="U56" s="10">
-        <v>3</v>
-      </c>
-      <c r="V56" s="10">
-        <v>3</v>
-      </c>
-      <c r="W56" s="10">
+      <c r="T57" s="10">
+        <v>3</v>
+      </c>
+      <c r="U57" s="10">
+        <v>3</v>
+      </c>
+      <c r="V57" s="10">
+        <v>3</v>
+      </c>
+      <c r="W57" s="10">
         <v>4</v>
       </c>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10"/>
-      <c r="AC56" s="10"/>
-      <c r="AD56">
-        <f>SUM(O56:AC56)</f>
-        <v>49</v>
-      </c>
-      <c r="AE56">
-        <f>150-AD56</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="11:31" x14ac:dyDescent="0.3">
-      <c r="L57" s="11"/>
-      <c r="M57" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="P57" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="11">
-        <v>7</v>
-      </c>
-      <c r="R57" s="11">
-        <v>11</v>
-      </c>
-      <c r="S57" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="T57" s="11">
-        <v>3</v>
-      </c>
-      <c r="U57" s="11">
-        <v>3</v>
-      </c>
-      <c r="V57" s="11">
-        <v>5</v>
-      </c>
-      <c r="W57" s="11">
-        <v>7</v>
-      </c>
-      <c r="X57" s="11"/>
-      <c r="Y57" s="11"/>
-      <c r="Z57" s="11"/>
-      <c r="AA57" s="11"/>
-      <c r="AB57" s="11"/>
-      <c r="AC57" s="11"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
       <c r="AD57">
         <f>SUM(O57:AC57)</f>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AE57">
-        <f t="shared" ref="AE57:AE59" si="6">150-AD57</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="11:31" x14ac:dyDescent="0.3">
+        <f>150-AD57</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="4:31" x14ac:dyDescent="0.3">
       <c r="L58" s="11"/>
       <c r="M58" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N58" s="11"/>
       <c r="O58" s="11">
@@ -3343,22 +3341,22 @@
         <v>7</v>
       </c>
       <c r="R58" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S58" s="11">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="T58" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U58" s="11">
         <v>3</v>
       </c>
       <c r="V58" s="11">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="W58" s="11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
@@ -3368,130 +3366,178 @@
       <c r="AC58" s="11"/>
       <c r="AD58">
         <f>SUM(O58:AC58)</f>
+        <v>57</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" ref="AE58:AE60" si="6">150-AD58</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="L59" s="11"/>
+      <c r="M59" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="P59" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>7</v>
+      </c>
+      <c r="R59" s="11">
+        <v>12</v>
+      </c>
+      <c r="S59" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="T59" s="11">
+        <v>0</v>
+      </c>
+      <c r="U59" s="11">
+        <v>3</v>
+      </c>
+      <c r="V59" s="11">
+        <v>3</v>
+      </c>
+      <c r="W59" s="11">
+        <v>12</v>
+      </c>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="11"/>
+      <c r="AC59" s="11"/>
+      <c r="AD59">
+        <f>SUM(O59:AC59)</f>
         <v>56</v>
       </c>
-      <c r="AE58">
+      <c r="AE59">
         <f t="shared" si="6"/>
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="11:31" x14ac:dyDescent="0.3">
-      <c r="L59" s="12"/>
-      <c r="M59" s="12" t="s">
+    <row r="60" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="L60" s="12"/>
+      <c r="M60" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12">
+      <c r="N60" s="12"/>
+      <c r="O60" s="12">
         <v>2.5</v>
       </c>
-      <c r="P59" s="12">
+      <c r="P60" s="12">
         <v>2.5</v>
       </c>
-      <c r="Q59" s="12">
+      <c r="Q60" s="12">
         <v>7</v>
       </c>
-      <c r="R59" s="12">
+      <c r="R60" s="12">
         <v>10.5</v>
       </c>
-      <c r="S59" s="12">
+      <c r="S60" s="12">
         <v>7.5</v>
       </c>
-      <c r="T59" s="12">
-        <v>0</v>
-      </c>
-      <c r="U59" s="12">
-        <v>3</v>
-      </c>
-      <c r="V59" s="12">
-        <v>3</v>
-      </c>
-      <c r="W59" s="12">
+      <c r="T60" s="12">
+        <v>0</v>
+      </c>
+      <c r="U60" s="12">
+        <v>3</v>
+      </c>
+      <c r="V60" s="12">
+        <v>3</v>
+      </c>
+      <c r="W60" s="12">
         <v>7</v>
       </c>
-      <c r="X59" s="12"/>
-      <c r="Y59" s="12"/>
-      <c r="Z59" s="12"/>
-      <c r="AA59" s="12"/>
-      <c r="AB59" s="12"/>
-      <c r="AC59" s="12"/>
-      <c r="AD59">
-        <f>SUM(O59:AC59)</f>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="12"/>
+      <c r="AC60" s="12"/>
+      <c r="AD60">
+        <f>SUM(O60:AC60)</f>
         <v>43</v>
       </c>
-      <c r="AE59">
+      <c r="AE60">
         <f t="shared" si="6"/>
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="11:31" x14ac:dyDescent="0.3">
-      <c r="L60" s="65" t="s">
+    <row r="61" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="L61" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="M60" s="65"/>
-      <c r="N60" s="46"/>
-      <c r="O60" s="14">
-        <f>SUM(O56:O59)</f>
+      <c r="M61" s="65"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="14">
+        <f>SUM(O57:O60)</f>
         <v>10.5</v>
       </c>
-      <c r="P60" s="14">
-        <f>SUM(P56:P59)</f>
+      <c r="P61" s="14">
+        <f>SUM(P57:P60)</f>
         <v>18</v>
       </c>
-      <c r="Q60" s="14">
-        <f>SUM(Q56:Q59)</f>
+      <c r="Q61" s="14">
+        <f>SUM(Q57:Q60)</f>
         <v>26</v>
       </c>
-      <c r="R60" s="14">
-        <f t="shared" ref="R60:AC60" si="7">SUM(R56:R59)</f>
+      <c r="R61" s="14">
+        <f t="shared" ref="R61:AC61" si="7">SUM(R57:R60)</f>
         <v>43.5</v>
       </c>
-      <c r="S60" s="14">
+      <c r="S61" s="14">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="T60" s="14">
+      <c r="T61" s="14">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="U60" s="14">
+      <c r="U61" s="14">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="V60" s="14">
+      <c r="V61" s="14">
         <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="W60" s="14">
+        <v>20</v>
+      </c>
+      <c r="W61" s="14">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="X60" s="14">
+      <c r="X61" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y60" s="14">
+      <c r="Y61" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z60" s="14">
+      <c r="Z61" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA60" s="14">
+      <c r="AA61" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AB60" s="14">
+      <c r="AB61" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC60" s="14">
+      <c r="AC61" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD60" s="14">
-        <f>SUM(O60:AC60)</f>
-        <v>199</v>
+      <c r="AD61" s="14">
+        <f>SUM(O61:AC61)</f>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3499,9 +3545,9 @@
     <mergeCell ref="O1:Y1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L61:M61"/>
   </mergeCells>
-  <conditionalFormatting sqref="M49:N49">
+  <conditionalFormatting sqref="M50:N50">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3509,7 +3555,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE56:AE59">
+  <conditionalFormatting sqref="AE57:AE60">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
